--- a/Data_clean/MCAS/Estados_US/Edos_USA_2021/COLORADO_2021.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2021/COLORADO_2021.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1185"/>
+  <dimension ref="A1:D1179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C34">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C36">
@@ -1109,7 +1109,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C56">
@@ -1122,7 +1122,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C57">
@@ -1420,7 +1420,7 @@
         <v>10</v>
       </c>
       <c r="D79">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="80">
@@ -1433,7 +1433,7 @@
         <v>10</v>
       </c>
       <c r="D80">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="81">
@@ -1556,7 +1556,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C90">
@@ -1589,7 +1589,7 @@
         <v>10</v>
       </c>
       <c r="D92">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="93">
@@ -1686,7 +1686,7 @@
     <row r="100">
       <c r="B100" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C100">
@@ -1725,7 +1725,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C103">
@@ -1771,7 +1771,7 @@
         <v>10</v>
       </c>
       <c r="D106">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="107">
@@ -2050,7 +2050,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C128">
@@ -2063,7 +2063,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C129">
@@ -2076,7 +2076,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C130">
@@ -2180,7 +2180,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C138">
@@ -2413,7 +2413,7 @@
         <v>109</v>
       </c>
       <c r="D155">
-        <v>0.009839321177107781</v>
+        <v>0.00983932117710778</v>
       </c>
     </row>
     <row r="156">
@@ -2528,7 +2528,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C164">
@@ -2554,7 +2554,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -2611,7 +2611,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C170">
@@ -2811,7 +2811,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C185">
@@ -2922,7 +2922,7 @@
         <v>10</v>
       </c>
       <c r="D193">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="194">
@@ -2993,7 +2993,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C199">
@@ -3032,7 +3032,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C202">
@@ -3123,7 +3123,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C209">
@@ -3136,7 +3136,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C210">
@@ -3149,7 +3149,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C211">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C212">
@@ -3182,7 +3182,7 @@
         <v>10</v>
       </c>
       <c r="D213">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="214">
@@ -3292,12 +3292,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C222">
@@ -3336,7 +3336,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C225">
@@ -3349,7 +3349,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C226">
@@ -3401,7 +3401,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C230">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C235">
@@ -3518,7 +3518,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C239">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C242">
@@ -3700,7 +3700,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C253">
@@ -3765,7 +3765,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C258">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C260">
@@ -3895,7 +3895,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C268">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C277">
@@ -4077,7 +4077,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C282">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C283">
@@ -4103,7 +4103,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C284">
@@ -4116,7 +4116,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C285">
@@ -4251,7 +4251,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C295">
@@ -4264,7 +4264,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C296">
@@ -4342,7 +4342,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C302">
@@ -4485,7 +4485,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C313">
@@ -4537,7 +4537,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C317">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C319">
@@ -4589,7 +4589,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C321">
@@ -4602,7 +4602,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C322">
@@ -4628,7 +4628,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C324">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C327">
@@ -4726,7 +4726,7 @@
         <v>10</v>
       </c>
       <c r="D331">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="332">
@@ -4750,7 +4750,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C333">
@@ -4763,7 +4763,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C334">
@@ -4776,7 +4776,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C335">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C339">
@@ -4841,7 +4841,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C340">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C343">
@@ -4893,7 +4893,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C344">
@@ -4906,7 +4906,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C345">
@@ -4919,7 +4919,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C346">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C349">
@@ -4971,7 +4971,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C350">
@@ -5023,7 +5023,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C354">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C355">
@@ -5114,7 +5114,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C361">
@@ -5127,7 +5127,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C362">
@@ -5153,7 +5153,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C364">
@@ -5166,7 +5166,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C365">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C367">
@@ -5231,7 +5231,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C370">
@@ -5368,7 +5368,7 @@
         <v>10</v>
       </c>
       <c r="D380">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="381">
@@ -5381,13 +5381,13 @@
         <v>10</v>
       </c>
       <c r="D381">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C382">
@@ -5413,7 +5413,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C384">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C386">
@@ -5465,7 +5465,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C388">
@@ -5600,7 +5600,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C398">
@@ -5652,7 +5652,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C402">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C406">
@@ -5756,7 +5756,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C410">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C413">
@@ -5873,7 +5873,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C419">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C420">
@@ -5912,7 +5912,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C422">
@@ -5925,7 +5925,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C423">
@@ -5951,7 +5951,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C425">
@@ -6016,7 +6016,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C430">
@@ -6042,7 +6042,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C432">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C433">
@@ -6094,7 +6094,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C436">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C437">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C438">
@@ -6190,7 +6190,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C443">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C444">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C448">
@@ -6281,7 +6281,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C450">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C456">
@@ -6437,7 +6437,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C462">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C469">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C475">
@@ -6619,7 +6619,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C476">
@@ -6632,7 +6632,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C477">
@@ -6749,7 +6749,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C486">
@@ -6827,7 +6827,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C492">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C496">
@@ -6892,7 +6892,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C497">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C499">
@@ -6944,7 +6944,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C501">
@@ -6957,7 +6957,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C502">
@@ -6970,7 +6970,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C503">
@@ -7009,7 +7009,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C506">
@@ -7035,7 +7035,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C508">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C511">
@@ -7087,7 +7087,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C512">
@@ -7113,7 +7113,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C514">
@@ -7126,7 +7126,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C515">
@@ -7204,7 +7204,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C521">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C522">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C523">
@@ -7295,7 +7295,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C528">
@@ -7308,7 +7308,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C529">
@@ -7347,7 +7347,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C532">
@@ -7360,7 +7360,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C533">
@@ -7599,7 +7599,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C551">
@@ -7625,7 +7625,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C553">
@@ -7749,7 +7749,7 @@
         <v>10</v>
       </c>
       <c r="D562">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="563">
@@ -8379,7 +8379,7 @@
     <row r="611">
       <c r="B611" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C611">
@@ -8664,13 +8664,13 @@
         <v>10</v>
       </c>
       <c r="D632">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C633">
@@ -8787,7 +8787,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C642">
@@ -8852,7 +8852,7 @@
     <row r="647">
       <c r="B647" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C647">
@@ -8917,7 +8917,7 @@
     <row r="652">
       <c r="B652" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C652">
@@ -8974,7 +8974,7 @@
     <row r="656">
       <c r="B656" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C656">
@@ -8987,7 +8987,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C657">
@@ -9039,7 +9039,7 @@
     <row r="661">
       <c r="B661" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C661">
@@ -9130,7 +9130,7 @@
     <row r="668">
       <c r="B668" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C668">
@@ -9278,7 +9278,7 @@
     <row r="679">
       <c r="B679" t="inlineStr">
         <is>
-          <t>Lampazos de Naranjo</t>
+          <t>Lampazos De Naranjo</t>
         </is>
       </c>
       <c r="C679">
@@ -9304,7 +9304,7 @@
     <row r="681">
       <c r="B681" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C681">
@@ -9317,7 +9317,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>MonteMorelos</t>
+          <t>Montemorelos</t>
         </is>
       </c>
       <c r="C682">
@@ -9343,7 +9343,7 @@
     <row r="684">
       <c r="B684" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C684">
@@ -9439,7 +9439,7 @@
     <row r="691">
       <c r="B691" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C691">
@@ -9452,7 +9452,7 @@
     <row r="692">
       <c r="B692" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C692">
@@ -9465,7 +9465,7 @@
     <row r="693">
       <c r="B693" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C693">
@@ -9478,7 +9478,7 @@
     <row r="694">
       <c r="B694" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C694">
@@ -9491,7 +9491,7 @@
     <row r="695">
       <c r="B695" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C695">
@@ -9504,7 +9504,7 @@
     <row r="696">
       <c r="B696" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C696">
@@ -9595,7 +9595,7 @@
     <row r="703">
       <c r="B703" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C703">
@@ -9608,7 +9608,7 @@
     <row r="704">
       <c r="B704" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C704">
@@ -9621,7 +9621,7 @@
     <row r="705">
       <c r="B705" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C705">
@@ -9634,7 +9634,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C706">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C724">
@@ -9894,7 +9894,7 @@
     <row r="726">
       <c r="B726" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C726">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>San Juan del Estado</t>
+          <t>San Juan Del Estado</t>
         </is>
       </c>
       <c r="C731">
@@ -10115,7 +10115,7 @@
     <row r="743">
       <c r="B743" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C743">
@@ -10323,7 +10323,7 @@
     <row r="759">
       <c r="B759" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C759">
@@ -10583,7 +10583,7 @@
     <row r="779">
       <c r="B779" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C779">
@@ -10596,7 +10596,7 @@
     <row r="780">
       <c r="B780" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C780">
@@ -10609,7 +10609,7 @@
     <row r="781">
       <c r="B781" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C781">
@@ -10622,7 +10622,7 @@
     <row r="782">
       <c r="B782" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C782">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C783">
@@ -10661,7 +10661,7 @@
     <row r="785">
       <c r="B785" t="inlineStr">
         <is>
-          <t>Villa de Chilapa de Díaz</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C785">
@@ -10674,7 +10674,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C786">
@@ -10687,7 +10687,7 @@
     <row r="787">
       <c r="B787" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C787">
@@ -10700,7 +10700,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C788">
@@ -10713,7 +10713,7 @@
     <row r="789">
       <c r="B789" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C789">
@@ -10887,7 +10887,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C802">
@@ -10926,7 +10926,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C805">
@@ -11030,7 +11030,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C813">
@@ -11147,7 +11147,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C822">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C824">
@@ -11199,7 +11199,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C826">
@@ -11290,7 +11290,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C833">
@@ -11355,7 +11355,7 @@
     <row r="838">
       <c r="B838" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C838">
@@ -11446,7 +11446,7 @@
     <row r="845">
       <c r="B845" t="inlineStr">
         <is>
-          <t>San Nicolás de los Ranchos</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C845">
@@ -11472,7 +11472,7 @@
     <row r="847">
       <c r="B847" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C847">
@@ -11537,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C852">
@@ -11602,7 +11602,7 @@
     <row r="857">
       <c r="B857" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C857">
@@ -11628,7 +11628,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C859">
@@ -11641,7 +11641,7 @@
     <row r="860">
       <c r="B860" t="inlineStr">
         <is>
-          <t>Tepeyahualco de Cuauhtémoc</t>
+          <t>Tepeyahualco De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C860">
@@ -11654,7 +11654,7 @@
     <row r="861">
       <c r="B861" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C861">
@@ -11693,7 +11693,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C864">
@@ -11906,7 +11906,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C880">
@@ -11919,7 +11919,7 @@
     <row r="881">
       <c r="B881" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C881">
@@ -11971,7 +11971,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C885">
@@ -11984,7 +11984,7 @@
     <row r="886">
       <c r="B886" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C886">
@@ -12010,7 +12010,7 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C888">
@@ -12049,7 +12049,7 @@
     <row r="891">
       <c r="B891" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C891">
@@ -12189,7 +12189,7 @@
     <row r="901">
       <c r="B901" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C901">
@@ -12235,13 +12235,13 @@
         <v>10</v>
       </c>
       <c r="D904">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C905">
@@ -12332,7 +12332,7 @@
     <row r="912">
       <c r="B912" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C912">
@@ -12423,7 +12423,7 @@
     <row r="919">
       <c r="B919" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C919">
@@ -12501,7 +12501,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C925">
@@ -12514,7 +12514,7 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C926">
@@ -13070,7 +13070,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C968">
@@ -13270,7 +13270,7 @@
     <row r="983">
       <c r="B983" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C983">
@@ -13657,7 +13657,7 @@
     <row r="1012">
       <c r="B1012" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1012">
@@ -13670,7 +13670,7 @@
     <row r="1013">
       <c r="B1013" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1013">
@@ -13857,7 +13857,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1027">
@@ -13896,7 +13896,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1030">
@@ -14078,7 +14078,7 @@
     <row r="1044">
       <c r="B1044" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1044">
@@ -14182,7 +14182,7 @@
     <row r="1052">
       <c r="B1052" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1052">
@@ -14195,7 +14195,7 @@
     <row r="1053">
       <c r="B1053" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1053">
@@ -14234,7 +14234,7 @@
     <row r="1056">
       <c r="B1056" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1056">
@@ -14338,7 +14338,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Landero y Coss</t>
+          <t>Landero Y Coss</t>
         </is>
       </c>
       <c r="C1064">
@@ -14377,7 +14377,7 @@
     <row r="1067">
       <c r="B1067" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1067">
@@ -14390,7 +14390,7 @@
     <row r="1068">
       <c r="B1068" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1068">
@@ -14481,7 +14481,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1075">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1078">
@@ -14572,7 +14572,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1082">
@@ -14637,7 +14637,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1087">
@@ -14663,7 +14663,7 @@
     <row r="1089">
       <c r="B1089" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1089">
@@ -14897,7 +14897,7 @@
     <row r="1107">
       <c r="B1107" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1107">
@@ -14930,7 +14930,7 @@
         <v>10</v>
       </c>
       <c r="D1109">
-        <v>0.0009026900162484203</v>
+        <v>0.0009026900162484204</v>
       </c>
     </row>
     <row r="1110">
@@ -15123,7 +15123,7 @@
     <row r="1124">
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Tekal de Venegas</t>
+          <t>Tekal De Venegas</t>
         </is>
       </c>
       <c r="C1124">
@@ -15245,7 +15245,7 @@
     <row r="1133">
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1133">
@@ -15271,7 +15271,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1135">
@@ -15401,7 +15401,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1145">
@@ -15479,7 +15479,7 @@
     <row r="1151">
       <c r="B1151" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1151">
@@ -15531,7 +15531,7 @@
     <row r="1155">
       <c r="B1155" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1155">
@@ -15544,7 +15544,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1156">
@@ -15557,7 +15557,7 @@
     <row r="1157">
       <c r="B1157" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1157">
@@ -15700,7 +15700,7 @@
     <row r="1168">
       <c r="B1168" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1168">
@@ -15713,7 +15713,7 @@
     <row r="1169">
       <c r="B1169" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1169">
@@ -15752,7 +15752,7 @@
     <row r="1172">
       <c r="B1172" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1172">
@@ -15851,41 +15851,6 @@
       </c>
       <c r="D1179">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 701,861</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Mayo de 2022</t>
-        </is>
       </c>
     </row>
   </sheetData>
